--- a/scf-version.xlsx
+++ b/scf-version.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangjuan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F6655E-13C6-4AF2-B0FC-E7107F904BE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E960C1-784C-49A3-A1B3-4404DADA8142}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A46F4D16-F30C-4827-8709-20B816A42321}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="51">
   <si>
     <t>gdsipgw01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -249,6 +249,17 @@
   <si>
     <t xml:space="preserve">Version 6.5 (20.02), SLPL Version 6000
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMP_RecordService_Main.c.bin:1.0.1
+SMP_ReportService_Main.c.bin:1.0.1
+ct1000005slp.bin: 6.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ct1000005slp.bin:7.00（话单表切表问题）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -450,6 +461,12 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -461,12 +478,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -784,8 +795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDAE8B13-C3DA-4B13-840F-EEE215A19522}">
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -818,7 +829,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -830,7 +841,7 @@
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
@@ -842,7 +853,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
@@ -854,7 +865,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
@@ -864,7 +875,7 @@
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="17" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -876,7 +887,7 @@
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="3" t="s">
         <v>2</v>
       </c>
@@ -888,7 +899,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="3" t="s">
         <v>3</v>
       </c>
@@ -900,7 +911,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="17"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="3" t="s">
         <v>16</v>
       </c>
@@ -910,7 +921,7 @@
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -922,7 +933,7 @@
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
@@ -932,7 +943,7 @@
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="3" t="s">
         <v>16</v>
       </c>
@@ -942,7 +953,7 @@
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="17" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -956,7 +967,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="3" t="s">
         <v>9</v>
       </c>
@@ -966,7 +977,7 @@
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="3" t="s">
         <v>16</v>
       </c>
@@ -976,7 +987,7 @@
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="17" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -988,7 +999,7 @@
       <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="16"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="3" t="s">
         <v>13</v>
       </c>
@@ -998,7 +1009,7 @@
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="3" t="s">
         <v>14</v>
       </c>
@@ -1008,7 +1019,7 @@
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="3" t="s">
         <v>16</v>
       </c>
@@ -1018,7 +1029,7 @@
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="20" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -1032,7 +1043,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
+      <c r="A22" s="20"/>
       <c r="B22" s="3" t="s">
         <v>13</v>
       </c>
@@ -1042,7 +1053,7 @@
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="18"/>
+      <c r="A23" s="20"/>
       <c r="B23" s="5" t="s">
         <v>14</v>
       </c>
@@ -1052,7 +1063,7 @@
       <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="18"/>
+      <c r="A24" s="20"/>
       <c r="B24" s="5" t="s">
         <v>16</v>
       </c>
@@ -1070,7 +1081,7 @@
       <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -1082,7 +1093,7 @@
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="16"/>
+      <c r="A29" s="18"/>
       <c r="B29" s="3" t="s">
         <v>2</v>
       </c>
@@ -1094,7 +1105,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="16"/>
+      <c r="A30" s="18"/>
       <c r="B30" s="3" t="s">
         <v>3</v>
       </c>
@@ -1106,7 +1117,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="17"/>
+      <c r="A31" s="19"/>
       <c r="B31" s="3" t="s">
         <v>16</v>
       </c>
@@ -1116,7 +1127,7 @@
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="17" t="s">
         <v>4</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -1128,7 +1139,7 @@
       <c r="D32" s="3"/>
     </row>
     <row r="33" spans="1:4" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="16"/>
+      <c r="A33" s="18"/>
       <c r="B33" s="3" t="s">
         <v>2</v>
       </c>
@@ -1140,7 +1151,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="16"/>
+      <c r="A34" s="18"/>
       <c r="B34" s="3" t="s">
         <v>3</v>
       </c>
@@ -1152,7 +1163,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="17"/>
+      <c r="A35" s="19"/>
       <c r="B35" s="3" t="s">
         <v>16</v>
       </c>
@@ -1162,7 +1173,7 @@
       <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -1176,7 +1187,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="16"/>
+      <c r="A37" s="18"/>
       <c r="B37" s="3" t="s">
         <v>9</v>
       </c>
@@ -1186,7 +1197,7 @@
       <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="17"/>
+      <c r="A38" s="19"/>
       <c r="B38" s="3" t="s">
         <v>16</v>
       </c>
@@ -1196,7 +1207,7 @@
       <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="17" t="s">
         <v>10</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -1208,7 +1219,7 @@
       <c r="D39" s="4"/>
     </row>
     <row r="40" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="16"/>
+      <c r="A40" s="18"/>
       <c r="B40" s="3" t="s">
         <v>9</v>
       </c>
@@ -1218,7 +1229,7 @@
       <c r="D40" s="3"/>
     </row>
     <row r="41" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="17"/>
+      <c r="A41" s="19"/>
       <c r="B41" s="3" t="s">
         <v>16</v>
       </c>
@@ -1228,7 +1239,7 @@
       <c r="D41" s="3"/>
     </row>
     <row r="42" spans="1:4" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="17" t="s">
         <v>11</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -1242,7 +1253,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="16"/>
+      <c r="A43" s="18"/>
       <c r="B43" s="3" t="s">
         <v>13</v>
       </c>
@@ -1252,7 +1263,7 @@
       <c r="D43" s="3"/>
     </row>
     <row r="44" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="16"/>
+      <c r="A44" s="18"/>
       <c r="B44" s="3" t="s">
         <v>14</v>
       </c>
@@ -1262,7 +1273,7 @@
       <c r="D44" s="3"/>
     </row>
     <row r="45" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="17"/>
+      <c r="A45" s="19"/>
       <c r="B45" s="3" t="s">
         <v>16</v>
       </c>
@@ -1272,7 +1283,7 @@
       <c r="D45" s="3"/>
     </row>
     <row r="46" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="18" t="s">
+      <c r="A46" s="20" t="s">
         <v>15</v>
       </c>
       <c r="B46" s="3" t="s">
@@ -1284,7 +1295,7 @@
       <c r="D46" s="4"/>
     </row>
     <row r="47" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="18"/>
+      <c r="A47" s="20"/>
       <c r="B47" s="3" t="s">
         <v>13</v>
       </c>
@@ -1294,7 +1305,7 @@
       <c r="D47" s="3"/>
     </row>
     <row r="48" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="18"/>
+      <c r="A48" s="20"/>
       <c r="B48" s="3" t="s">
         <v>14</v>
       </c>
@@ -1304,7 +1315,7 @@
       <c r="D48" s="3"/>
     </row>
     <row r="49" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="18"/>
+      <c r="A49" s="20"/>
       <c r="B49" s="3" t="s">
         <v>17</v>
       </c>
@@ -1329,18 +1340,18 @@
       <c r="C54" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D54" s="19" t="s">
+      <c r="D54" s="15" t="s">
         <v>38</v>
       </c>
       <c r="E54" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F54" s="20" t="s">
+      <c r="F54" s="16" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="17" t="s">
         <v>23</v>
       </c>
       <c r="B55" s="3" t="s">
@@ -1354,7 +1365,7 @@
       <c r="F55" s="3"/>
     </row>
     <row r="56" spans="1:6" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="16"/>
+      <c r="A56" s="18"/>
       <c r="B56" s="3" t="s">
         <v>2</v>
       </c>
@@ -1372,7 +1383,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="16"/>
+      <c r="A57" s="18"/>
       <c r="B57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1386,7 +1397,7 @@
       <c r="F57" s="3"/>
     </row>
     <row r="58" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="16"/>
+      <c r="A58" s="18"/>
       <c r="B58" s="3" t="s">
         <v>12</v>
       </c>
@@ -1398,7 +1409,7 @@
       <c r="F58" s="3"/>
     </row>
     <row r="59" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="16"/>
+      <c r="A59" s="18"/>
       <c r="B59" s="3" t="s">
         <v>13</v>
       </c>
@@ -1410,7 +1421,7 @@
       <c r="F59" s="3"/>
     </row>
     <row r="60" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="16"/>
+      <c r="A60" s="18"/>
       <c r="B60" s="3" t="s">
         <v>14</v>
       </c>
@@ -1422,7 +1433,7 @@
       <c r="F60" s="3"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="17"/>
+      <c r="A61" s="19"/>
       <c r="B61" s="3" t="s">
         <v>16</v>
       </c>
@@ -1433,8 +1444,8 @@
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="15" t="s">
+    <row r="62" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="3" t="s">
@@ -1445,12 +1456,14 @@
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F62" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="63" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="16"/>
+      <c r="A63" s="18"/>
       <c r="B63" s="3" t="s">
         <v>9</v>
       </c>
@@ -1462,7 +1475,7 @@
       <c r="F63" s="3"/>
     </row>
     <row r="64" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A64" s="16"/>
+      <c r="A64" s="18"/>
       <c r="B64" s="3" t="s">
         <v>22</v>
       </c>
@@ -1474,7 +1487,7 @@
       <c r="F64" s="3"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="17"/>
+      <c r="A65" s="19"/>
       <c r="B65" s="3" t="s">
         <v>16</v>
       </c>
